--- a/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200615.xlsx
+++ b/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200615.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hebei\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE9C24-6B0A-4FCC-A4A6-CC2EE3865992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10296,17 +10302,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10381,151 +10383,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10544,194 +10403,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10739,249 +10412,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11046,13 +10480,13 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11062,61 +10496,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11374,68 +10765,68 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9083333333333" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.2" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.68333333333333" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.6333333333333" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.3666666666667" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.09166666666667" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.09166666666667" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.45833333333333" style="12" customWidth="1"/>
-    <col min="8" max="8" width="6.63333333333333" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.9083333333333" style="12" customWidth="1"/>
-    <col min="10" max="10" width="7.63333333333333" style="12" customWidth="1"/>
-    <col min="11" max="11" width="14.6333333333333" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.18333333333333" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.9083333333333" style="12" customWidth="1"/>
-    <col min="14" max="14" width="19.275" style="12" customWidth="1"/>
-    <col min="15" max="15" width="11.5416666666667" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.18333333333333" style="12" customWidth="1"/>
-    <col min="17" max="17" width="6.725" style="12" customWidth="1"/>
-    <col min="18" max="18" width="6.36666666666667" style="12" customWidth="1"/>
-    <col min="19" max="19" width="6.275" style="12" customWidth="1"/>
-    <col min="20" max="20" width="16.0916666666667" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.23046875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.61328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.3828125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.07421875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.61328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.921875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.61328125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.61328125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.15234375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="11.921875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="19.3046875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="11.53515625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.15234375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="6.69140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="6.3828125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="6.3046875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="16.07421875" style="12" customWidth="1"/>
     <col min="21" max="21" width="21" style="12" customWidth="1"/>
-    <col min="22" max="22" width="20.8166666666667" style="12" customWidth="1"/>
-    <col min="23" max="23" width="7.18333333333333" style="12" customWidth="1"/>
-    <col min="24" max="25" width="10.9083333333333" style="12"/>
-    <col min="26" max="26" width="17.8166666666667" style="14" customWidth="1"/>
-    <col min="27" max="27" width="21.1833333333333" style="12" customWidth="1"/>
-    <col min="28" max="28" width="23.3666666666667" style="12" customWidth="1"/>
-    <col min="29" max="29" width="15.275" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.0916666666667" style="12" customWidth="1"/>
-    <col min="31" max="31" width="13.4583333333333" style="12" customWidth="1"/>
-    <col min="32" max="32" width="29.8" style="12" customWidth="1"/>
-    <col min="33" max="33" width="21.9083333333333" style="12" customWidth="1"/>
-    <col min="34" max="34" width="9.275" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.4583333333333" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.9083333333333" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.9083333333333" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.4583333333333" style="12" customWidth="1"/>
+    <col min="22" max="22" width="20.84375" style="12" customWidth="1"/>
+    <col min="23" max="23" width="7.15234375" style="12" customWidth="1"/>
+    <col min="24" max="25" width="10.921875" style="12"/>
+    <col min="26" max="26" width="17.84375" style="14" customWidth="1"/>
+    <col min="27" max="27" width="21.15234375" style="12" customWidth="1"/>
+    <col min="28" max="28" width="23.3828125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="15.3046875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.07421875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="13.4609375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="29.765625" style="12" customWidth="1"/>
+    <col min="33" max="33" width="21.921875" style="12" customWidth="1"/>
+    <col min="34" max="34" width="9.3046875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.921875" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.90833333333333" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.9083333333333" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.9083333333333" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.4583333333333" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.921875" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.921875" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.921875" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.09166666666667" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.9083333333333" style="12"/>
+    <col min="46" max="46" width="5.07421875" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="15" spans="1:46">
+    <row r="1" spans="1:46" s="11" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -11575,7 +10966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:46">
+    <row r="2" spans="1:46" s="11" customFormat="1">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -11634,7 +11025,7 @@
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
       <c r="AF2" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG2" s="17" t="s">
         <v>52</v>
@@ -11655,7 +11046,7 @@
       <c r="AS2" s="17"/>
       <c r="AT2" s="17"/>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:46">
+    <row r="3" spans="1:46" s="11" customFormat="1">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -11714,7 +11105,7 @@
       <c r="AD3" s="17"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG3" s="17" t="s">
         <v>52</v>
@@ -11735,7 +11126,7 @@
       <c r="AS3" s="17"/>
       <c r="AT3" s="17"/>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:46">
+    <row r="4" spans="1:46" s="11" customFormat="1">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -11792,7 +11183,7 @@
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
       <c r="AF4" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG4" s="17" t="s">
         <v>52</v>
@@ -11813,7 +11204,7 @@
       <c r="AS4" s="17"/>
       <c r="AT4" s="17"/>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:46">
+    <row r="5" spans="1:46" s="11" customFormat="1">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -11836,7 +11227,9 @@
         <v>56</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="17">
+        <v>4</v>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -11844,7 +11237,7 @@
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="17"/>
       <c r="R5" s="17">
@@ -11870,7 +11263,7 @@
       <c r="AD5" s="17"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG5" s="17" t="s">
         <v>52</v>
@@ -11891,7 +11284,7 @@
       <c r="AS5" s="17"/>
       <c r="AT5" s="17"/>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:46">
+    <row r="6" spans="1:46" s="11" customFormat="1">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -11948,7 +11341,7 @@
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
       <c r="AF6" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG6" s="17" t="s">
         <v>52</v>
@@ -11969,7 +11362,7 @@
       <c r="AS6" s="17"/>
       <c r="AT6" s="17"/>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:46">
+    <row r="7" spans="1:46" s="11" customFormat="1">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -12026,7 +11419,7 @@
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG7" s="17" t="s">
         <v>52</v>
@@ -12047,7 +11440,7 @@
       <c r="AS7" s="17"/>
       <c r="AT7" s="17"/>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:46">
+    <row r="8" spans="1:46" s="11" customFormat="1">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -12104,7 +11497,7 @@
       <c r="AD8" s="17"/>
       <c r="AE8" s="17"/>
       <c r="AF8" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG8" s="17" t="s">
         <v>52</v>
@@ -12125,7 +11518,7 @@
       <c r="AS8" s="17"/>
       <c r="AT8" s="17"/>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:46">
+    <row r="9" spans="1:46" s="11" customFormat="1">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -12184,7 +11577,7 @@
       <c r="AD9" s="17"/>
       <c r="AE9" s="17"/>
       <c r="AF9" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG9" s="17" t="s">
         <v>52</v>
@@ -12205,7 +11598,7 @@
       <c r="AS9" s="17"/>
       <c r="AT9" s="17"/>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:46">
+    <row r="10" spans="1:46" s="11" customFormat="1">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -12264,7 +11657,7 @@
       <c r="AD10" s="17"/>
       <c r="AE10" s="17"/>
       <c r="AF10" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG10" s="17" t="s">
         <v>52</v>
@@ -12285,7 +11678,7 @@
       <c r="AS10" s="17"/>
       <c r="AT10" s="17"/>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:46">
+    <row r="11" spans="1:46" s="11" customFormat="1">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -12342,7 +11735,7 @@
       <c r="AD11" s="17"/>
       <c r="AE11" s="17"/>
       <c r="AF11" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG11" s="17" t="s">
         <v>52</v>
@@ -12363,7 +11756,7 @@
       <c r="AS11" s="17"/>
       <c r="AT11" s="17"/>
     </row>
-    <row r="12" s="11" customFormat="1" spans="1:46">
+    <row r="12" spans="1:46" s="11" customFormat="1">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -12420,7 +11813,7 @@
       <c r="AD12" s="17"/>
       <c r="AE12" s="17"/>
       <c r="AF12" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG12" s="17" t="s">
         <v>52</v>
@@ -12441,7 +11834,7 @@
       <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
     </row>
-    <row r="13" s="11" customFormat="1" spans="1:46">
+    <row r="13" spans="1:46" s="11" customFormat="1">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -12464,9 +11857,7 @@
         <v>64</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="17">
-        <v>4</v>
-      </c>
+      <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -12474,7 +11865,7 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17">
@@ -12504,7 +11895,7 @@
       <c r="AD13" s="17"/>
       <c r="AE13" s="17"/>
       <c r="AF13" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG13" s="17" t="s">
         <v>52</v>
@@ -12525,7 +11916,7 @@
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:46">
+    <row r="14" spans="1:46" s="11" customFormat="1">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -12590,7 +11981,7 @@
       <c r="AD14" s="17"/>
       <c r="AE14" s="17"/>
       <c r="AF14" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG14" s="17" t="s">
         <v>52</v>
@@ -12611,7 +12002,7 @@
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
     </row>
-    <row r="15" s="11" customFormat="1" spans="1:46">
+    <row r="15" spans="1:46" s="11" customFormat="1">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -12674,7 +12065,7 @@
       <c r="AD15" s="17"/>
       <c r="AE15" s="17"/>
       <c r="AF15" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG15" s="17" t="s">
         <v>52</v>
@@ -12695,7 +12086,7 @@
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
     </row>
-    <row r="16" s="11" customFormat="1" spans="1:46">
+    <row r="16" spans="1:46" s="11" customFormat="1">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -12728,7 +12119,7 @@
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="17">
@@ -12760,7 +12151,7 @@
       <c r="AD16" s="17"/>
       <c r="AE16" s="17"/>
       <c r="AF16" s="25">
-        <v>43998.4215277778</v>
+        <v>43998.421527777798</v>
       </c>
       <c r="AG16" s="17" t="s">
         <v>52</v>
@@ -12781,7 +12172,7 @@
       <c r="AS16" s="17"/>
       <c r="AT16" s="17"/>
     </row>
-    <row r="17" s="11" customFormat="1" spans="1:46">
+    <row r="17" spans="1:46" s="11" customFormat="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="17"/>
@@ -12829,7 +12220,7 @@
       <c r="AS17" s="17"/>
       <c r="AT17" s="17"/>
     </row>
-    <row r="18" s="11" customFormat="1" spans="1:46">
+    <row r="18" spans="1:46" s="11" customFormat="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="17"/>
@@ -12877,7 +12268,7 @@
       <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:46">
+    <row r="19" spans="1:46" s="11" customFormat="1">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
@@ -12925,7 +12316,7 @@
       <c r="AS19" s="17"/>
       <c r="AT19" s="17"/>
     </row>
-    <row r="20" s="11" customFormat="1" ht="15" spans="1:46">
+    <row r="20" spans="1:46" s="11" customFormat="1">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -12974,53 +12365,60 @@
       <c r="AT20" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($F16)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13 H15:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13 H15:H1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:X16 I17:Z1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:X16 I17:Z1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4583333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -37445,7 +36843,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="8" t="s">
         <v>82</v>
       </c>
@@ -60304,8 +59702,8 @@
       <c r="AN2908" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>